--- a/data/trans_orig/P6703-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6703-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58E3CE9C-2AF7-477A-87C3-D56E117918BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4233954D-5EAF-45E0-98E9-78A67B9745F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{44853D0F-A79B-4FE2-82B0-84B38B936081}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{29C0707C-5874-4A6F-A65D-C9A59DCBA613}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="518">
   <si>
     <t>Población según si tiene tiempo de llevar al día su trabajo en 2012 (Tasa respuesta: 33,96%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>2,43%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
   </si>
   <si>
     <t>7,55%</t>
   </si>
   <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
   </si>
   <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -106,28 +106,28 @@
     <t>2,1%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
   </si>
   <si>
     <t>6,23%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
   </si>
   <si>
     <t>3,88%</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -136,1435 +136,1462 @@
     <t>20,94%</t>
   </si>
   <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
   </si>
   <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>7,73%</t>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tiene tiempo de llevar al día su trabajo en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>Población según si tiene tiempo de llevar al día su trabajo en 2023 (Tasa respuesta: 10,37%)</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
   </si>
   <si>
     <t>19,62%</t>
   </si>
   <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
   </si>
   <si>
     <t>27,34%</t>
   </si>
   <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tiene tiempo de llevar al día su trabajo en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>Población según si tiene tiempo de llevar al día su trabajo en 2023 (Tasa respuesta: 10,37%)</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
     <t>50,3%</t>
   </si>
   <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
   </si>
   <si>
     <t>48,4%</t>
   </si>
   <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
   </si>
   <si>
     <t>49,47%</t>
   </si>
   <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
   </si>
 </sst>
 </file>
@@ -1976,7 +2003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C9FDB8-374C-43A0-87F2-739C3EE9C3D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11F2505-FCC7-49FC-91B0-3447632387DD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2414,7 +2441,7 @@
         <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -2423,13 +2450,13 @@
         <v>16364</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -2441,10 +2468,10 @@
         <v>21</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,13 +2486,13 @@
         <v>21330</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -2474,13 +2501,13 @@
         <v>16692</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -2489,13 +2516,13 @@
         <v>38022</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,13 +2537,13 @@
         <v>168569</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>96</v>
@@ -2525,13 +2552,13 @@
         <v>104262</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>261</v>
@@ -2540,13 +2567,13 @@
         <v>272831</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2561,13 +2588,13 @@
         <v>271129</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>167</v>
@@ -2576,13 +2603,13 @@
         <v>181458</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>430</v>
@@ -2591,13 +2618,13 @@
         <v>452587</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,13 +2639,13 @@
         <v>439673</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>241</v>
@@ -2627,13 +2654,13 @@
         <v>254061</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>645</v>
@@ -2642,13 +2669,13 @@
         <v>693734</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,7 +2731,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2716,13 +2743,13 @@
         <v>8744</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2731,13 +2758,13 @@
         <v>2974</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -2746,13 +2773,13 @@
         <v>11718</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2767,13 +2794,13 @@
         <v>9495</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -2782,13 +2809,13 @@
         <v>7386</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -2797,13 +2824,13 @@
         <v>16880</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2818,13 +2845,13 @@
         <v>61594</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>47</v>
@@ -2833,13 +2860,13 @@
         <v>50783</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>103</v>
@@ -2848,13 +2875,13 @@
         <v>112378</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,10 +2896,10 @@
         <v>105751</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>134</v>
@@ -2935,13 +2962,13 @@
         <v>105171</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>214</v>
@@ -2950,13 +2977,13 @@
         <v>237931</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3051,13 @@
         <v>28069</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -3039,13 +3066,13 @@
         <v>29904</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>53</v>
@@ -3054,13 +3081,13 @@
         <v>57973</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,13 +3102,13 @@
         <v>34684</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -3090,13 +3117,13 @@
         <v>32792</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>63</v>
@@ -3105,13 +3132,13 @@
         <v>67476</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3153,13 @@
         <v>268691</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>161</v>
@@ -3141,13 +3168,13 @@
         <v>173520</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>419</v>
@@ -3156,13 +3183,13 @@
         <v>442211</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,13 +3204,13 @@
         <v>424997</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>254</v>
@@ -3192,13 +3219,13 @@
         <v>279166</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>657</v>
@@ -3207,13 +3234,13 @@
         <v>704164</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3255,13 @@
         <v>661481</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>403</v>
@@ -3243,13 +3270,13 @@
         <v>432329</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>1013</v>
@@ -3258,13 +3285,13 @@
         <v>1093810</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,7 +3347,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3339,7 +3366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032EB325-BF34-4563-9C07-4103A8FC96C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE37542-D08D-44D6-A9ED-EE8DC22B32EC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3356,7 +3383,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3463,13 +3490,13 @@
         <v>6315</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3478,13 +3505,13 @@
         <v>1937</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -3493,13 +3520,13 @@
         <v>8252</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,13 +3541,13 @@
         <v>12560</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3529,13 +3556,13 @@
         <v>3132</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -3544,13 +3571,13 @@
         <v>15692</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,13 +3592,13 @@
         <v>33248</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H6" s="7">
         <v>14</v>
@@ -3580,13 +3607,13 @@
         <v>13817</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>217</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M6" s="7">
         <v>45</v>
@@ -3595,13 +3622,13 @@
         <v>47064</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,13 +3643,13 @@
         <v>37409</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -3631,13 +3658,13 @@
         <v>21629</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M7" s="7">
         <v>57</v>
@@ -3646,13 +3673,13 @@
         <v>59038</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,13 +3694,13 @@
         <v>53587</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H8" s="7">
         <v>31</v>
@@ -3682,13 +3709,13 @@
         <v>31573</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="M8" s="7">
         <v>81</v>
@@ -3697,13 +3724,13 @@
         <v>85159</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>101</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,13 +3798,13 @@
         <v>27222</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -3786,13 +3813,13 @@
         <v>26689</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="M10" s="7">
         <v>52</v>
@@ -3801,13 +3828,13 @@
         <v>53911</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>240</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,13 +3849,13 @@
         <v>40878</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="H11" s="7">
         <v>40</v>
@@ -3837,13 +3864,13 @@
         <v>40809</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M11" s="7">
         <v>79</v>
@@ -3852,13 +3879,13 @@
         <v>81688</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,13 +3900,13 @@
         <v>174981</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H12" s="7">
         <v>103</v>
@@ -3888,13 +3915,13 @@
         <v>105160</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="M12" s="7">
         <v>269</v>
@@ -3903,13 +3930,13 @@
         <v>280141</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,13 +3951,13 @@
         <v>309098</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="H13" s="7">
         <v>194</v>
@@ -3939,13 +3966,13 @@
         <v>196369</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="M13" s="7">
         <v>487</v>
@@ -3954,13 +3981,13 @@
         <v>505467</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,13 +4002,13 @@
         <v>373018</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="H14" s="7">
         <v>274</v>
@@ -3990,13 +4017,13 @@
         <v>283748</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="M14" s="7">
         <v>616</v>
@@ -4005,13 +4032,13 @@
         <v>656766</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,7 +4094,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4082,10 +4109,10 @@
         <v>21</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>209</v>
+        <v>285</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -4094,13 +4121,13 @@
         <v>8130</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -4109,13 +4136,13 @@
         <v>15493</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,13 +4157,13 @@
         <v>20963</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -4145,13 +4172,13 @@
         <v>15765</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -4160,13 +4187,13 @@
         <v>36729</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>35</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,13 +4208,13 @@
         <v>59244</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="H18" s="7">
         <v>51</v>
@@ -4196,13 +4223,13 @@
         <v>53537</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="M18" s="7">
         <v>105</v>
@@ -4211,13 +4238,13 @@
         <v>112781</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,13 +4259,13 @@
         <v>119549</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="H19" s="7">
         <v>91</v>
@@ -4247,13 +4274,13 @@
         <v>91636</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="M19" s="7">
         <v>201</v>
@@ -4262,13 +4289,13 @@
         <v>211185</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,13 +4310,13 @@
         <v>143488</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="H20" s="7">
         <v>133</v>
@@ -4298,13 +4325,13 @@
         <v>139385</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="M20" s="7">
         <v>265</v>
@@ -4313,13 +4340,13 @@
         <v>282873</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,13 +4414,13 @@
         <v>40899</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>27</v>
+        <v>330</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -4402,13 +4429,13 @@
         <v>36756</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="M22" s="7">
         <v>75</v>
@@ -4417,13 +4444,13 @@
         <v>77655</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>296</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>324</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,13 +4465,13 @@
         <v>74402</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="H23" s="7">
         <v>59</v>
@@ -4453,13 +4480,13 @@
         <v>59706</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="M23" s="7">
         <v>128</v>
@@ -4468,13 +4495,13 @@
         <v>134108</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>332</v>
+        <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,13 +4516,13 @@
         <v>267473</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>170</v>
+        <v>344</v>
       </c>
       <c r="H24" s="7">
         <v>168</v>
@@ -4504,13 +4531,13 @@
         <v>172513</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="M24" s="7">
         <v>419</v>
@@ -4519,13 +4546,13 @@
         <v>439986</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>42</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,13 +4567,13 @@
         <v>466057</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="H25" s="7">
         <v>307</v>
@@ -4555,13 +4582,13 @@
         <v>309634</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="M25" s="7">
         <v>745</v>
@@ -4570,13 +4597,13 @@
         <v>775690</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>303</v>
+        <v>357</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>260</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4591,13 +4618,13 @@
         <v>570094</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="H26" s="7">
         <v>438</v>
@@ -4606,13 +4633,13 @@
         <v>454706</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="M26" s="7">
         <v>962</v>
@@ -4621,13 +4648,13 @@
         <v>1024799</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4683,7 +4710,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4702,7 +4729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354FBD58-9987-43A1-A07C-D8C00B1FBFB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E726FA-49B1-4A25-B6CD-ED713D9A18AF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4719,7 +4746,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4826,13 +4853,13 @@
         <v>1206</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4841,13 +4868,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4856,13 +4883,13 @@
         <v>1206</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>373</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4904,13 @@
         <v>1184</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>70</v>
+        <v>375</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4892,13 +4919,13 @@
         <v>637</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -4907,13 +4934,13 @@
         <v>1821</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>378</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +4955,13 @@
         <v>4635</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -4943,13 +4970,13 @@
         <v>6447</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -4958,13 +4985,13 @@
         <v>11082</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>85</v>
+        <v>385</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +5006,13 @@
         <v>10556</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>373</v>
+        <v>304</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4994,13 +5021,13 @@
         <v>4607</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -5009,13 +5036,13 @@
         <v>15163</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5030,13 +5057,13 @@
         <v>15807</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -5045,13 +5072,13 @@
         <v>8620</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="M8" s="7">
         <v>29</v>
@@ -5060,13 +5087,13 @@
         <v>24427</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>388</v>
+        <v>235</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,13 +5161,13 @@
         <v>7697</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>391</v>
+        <v>288</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -5149,13 +5176,13 @@
         <v>11780</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -5164,13 +5191,13 @@
         <v>19477</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,13 +5212,13 @@
         <v>22938</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>398</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -5200,13 +5227,13 @@
         <v>7516</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>287</v>
+        <v>69</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="M11" s="7">
         <v>30</v>
@@ -5215,13 +5242,13 @@
         <v>30454</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>396</v>
+        <v>108</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,13 +5263,13 @@
         <v>51353</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="H12" s="7">
         <v>56</v>
@@ -5251,13 +5278,13 @@
         <v>40148</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="M12" s="7">
         <v>106</v>
@@ -5266,13 +5293,13 @@
         <v>91501</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>410</v>
+        <v>171</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5287,13 +5314,13 @@
         <v>73072</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -5302,13 +5329,13 @@
         <v>68109</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="M13" s="7">
         <v>151</v>
@@ -5317,13 +5344,13 @@
         <v>141182</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5338,13 +5365,13 @@
         <v>175888</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="H14" s="7">
         <v>161</v>
@@ -5353,13 +5380,13 @@
         <v>125747</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>425</v>
+        <v>55</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="M14" s="7">
         <v>267</v>
@@ -5368,13 +5395,13 @@
         <v>301635</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,7 +5457,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5442,13 +5469,13 @@
         <v>15918</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>44</v>
+        <v>443</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -5457,13 +5484,13 @@
         <v>5316</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -5472,13 +5499,13 @@
         <v>21234</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,13 +5520,13 @@
         <v>5181</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>290</v>
+        <v>449</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -5508,13 +5535,13 @@
         <v>9090</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>439</v>
+        <v>35</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>440</v>
+        <v>291</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -5523,13 +5550,13 @@
         <v>14270</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,13 +5571,13 @@
         <v>26739</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="H18" s="7">
         <v>29</v>
@@ -5559,13 +5586,13 @@
         <v>19372</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="M18" s="7">
         <v>54</v>
@@ -5574,13 +5601,13 @@
         <v>46110</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,13 +5622,13 @@
         <v>26407</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -5610,13 +5637,13 @@
         <v>27161</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
@@ -5625,13 +5652,13 @@
         <v>53568</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>447</v>
+        <v>301</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,13 +5673,13 @@
         <v>58174</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="H20" s="7">
         <v>61</v>
@@ -5661,13 +5688,13 @@
         <v>53425</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="M20" s="7">
         <v>108</v>
@@ -5676,13 +5703,13 @@
         <v>111599</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5750,13 +5777,13 @@
         <v>24821</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>234</v>
+        <v>482</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>393</v>
+        <v>483</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -5765,13 +5792,13 @@
         <v>17096</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>318</v>
+        <v>25</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="M22" s="7">
         <v>47</v>
@@ -5780,13 +5807,13 @@
         <v>41917</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>471</v>
+        <v>75</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5801,13 +5828,13 @@
         <v>29303</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>476</v>
+        <v>204</v>
       </c>
       <c r="H23" s="7">
         <v>22</v>
@@ -5816,13 +5843,13 @@
         <v>17243</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="M23" s="7">
         <v>47</v>
@@ -5831,13 +5858,13 @@
         <v>46545</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5852,13 +5879,13 @@
         <v>82726</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>484</v>
+        <v>422</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="H24" s="7">
         <v>96</v>
@@ -5867,13 +5894,13 @@
         <v>65967</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>166</v>
+        <v>496</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="M24" s="7">
         <v>175</v>
@@ -5882,13 +5909,13 @@
         <v>148693</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>489</v>
+        <v>374</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5903,13 +5930,13 @@
         <v>110035</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="H25" s="7">
         <v>132</v>
@@ -5918,13 +5945,13 @@
         <v>99877</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>496</v>
+        <v>225</v>
       </c>
       <c r="M25" s="7">
         <v>233</v>
@@ -5933,13 +5960,13 @@
         <v>209912</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5954,13 +5981,13 @@
         <v>249869</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="H26" s="7">
         <v>236</v>
@@ -5969,13 +5996,13 @@
         <v>187792</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="M26" s="7">
         <v>404</v>
@@ -5984,13 +6011,13 @@
         <v>437661</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6046,7 +6073,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6703-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6703-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4233954D-5EAF-45E0-98E9-78A67B9745F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41A23ADC-BF9A-46EA-9499-D7742FF8366B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{29C0707C-5874-4A6F-A65D-C9A59DCBA613}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E7DB06D5-CAB4-4ABC-9B86-52CB7B292FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="517">
   <si>
     <t>Población según si tiene tiempo de llevar al día su trabajo en 2012 (Tasa respuesta: 33,96%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>2,43%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
   </si>
   <si>
     <t>7,55%</t>
   </si>
   <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
   </si>
   <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -106,1393 +106,1390 @@
     <t>2,1%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
   </si>
   <si>
     <t>6,23%</t>
   </si>
   <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tiene tiempo de llevar al día su trabajo en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>Población según si tiene tiempo de llevar al día su trabajo en 2023 (Tasa respuesta: 10,37%)</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
     <t>2,89%</t>
   </si>
   <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
+    <t>6,92%</t>
   </si>
   <si>
     <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tiene tiempo de llevar al día su trabajo en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>Población según si tiene tiempo de llevar al día su trabajo en 2023 (Tasa respuesta: 10,37%)</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
   </si>
   <si>
     <t>3,26%</t>
@@ -2003,7 +2000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11F2505-FCC7-49FC-91B0-3447632387DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2EEEA1-0F9E-4854-81F5-4CBE199EE6D0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2522,7 +2519,7 @@
         <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2537,13 +2534,13 @@
         <v>168569</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>96</v>
@@ -2552,13 +2549,13 @@
         <v>104262</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>261</v>
@@ -2567,13 +2564,13 @@
         <v>272831</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,13 +2585,13 @@
         <v>271129</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>167</v>
@@ -2603,13 +2600,13 @@
         <v>181458</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>430</v>
@@ -2618,13 +2615,13 @@
         <v>452587</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,13 +2636,13 @@
         <v>439673</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>241</v>
@@ -2654,13 +2651,13 @@
         <v>254061</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>645</v>
@@ -2669,13 +2666,13 @@
         <v>693734</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2731,7 +2728,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2743,13 +2740,13 @@
         <v>8744</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2758,13 +2755,13 @@
         <v>2974</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -2773,13 +2770,13 @@
         <v>11718</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,13 +2791,13 @@
         <v>9495</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -2809,13 +2806,13 @@
         <v>7386</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -2824,7 +2821,7 @@
         <v>16880</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>122</v>
@@ -2899,10 +2896,10 @@
         <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -2911,13 +2908,13 @@
         <v>68583</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>155</v>
@@ -2926,13 +2923,13 @@
         <v>174333</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,13 +2944,13 @@
         <v>132760</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>95</v>
@@ -2962,13 +2959,13 @@
         <v>105171</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>214</v>
@@ -2977,13 +2974,13 @@
         <v>237931</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,13 +3048,13 @@
         <v>28069</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -3066,13 +3063,13 @@
         <v>29904</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>53</v>
@@ -3081,13 +3078,13 @@
         <v>57973</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,13 +3099,13 @@
         <v>34684</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -3189,7 +3186,7 @@
         <v>174</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>175</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,13 +3201,13 @@
         <v>424997</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>254</v>
@@ -3219,13 +3216,13 @@
         <v>279166</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>657</v>
@@ -3234,13 +3231,13 @@
         <v>704164</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,13 +3252,13 @@
         <v>661481</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>403</v>
@@ -3270,13 +3267,13 @@
         <v>432329</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>1013</v>
@@ -3285,13 +3282,13 @@
         <v>1093810</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,7 +3344,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3366,7 +3363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE37542-D08D-44D6-A9ED-EE8DC22B32EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC55772-4F2C-4BD7-A40A-FB26735E422E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3383,7 +3380,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3490,13 +3487,13 @@
         <v>6315</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3505,13 +3502,13 @@
         <v>1937</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -3520,13 +3517,13 @@
         <v>8252</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3538,13 @@
         <v>12560</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3556,13 +3553,13 @@
         <v>3132</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -3571,13 +3568,13 @@
         <v>15692</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,13 +3589,13 @@
         <v>33248</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H6" s="7">
         <v>14</v>
@@ -3607,13 +3604,13 @@
         <v>13817</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M6" s="7">
         <v>45</v>
@@ -3622,13 +3619,13 @@
         <v>47064</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,13 +3640,13 @@
         <v>37409</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -3658,13 +3655,13 @@
         <v>21629</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M7" s="7">
         <v>57</v>
@@ -3673,13 +3670,13 @@
         <v>59038</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,13 +3691,13 @@
         <v>53587</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H8" s="7">
         <v>31</v>
@@ -3709,13 +3706,13 @@
         <v>31573</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M8" s="7">
         <v>81</v>
@@ -3724,13 +3721,13 @@
         <v>85159</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,13 +3795,13 @@
         <v>27222</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -3813,13 +3810,13 @@
         <v>26689</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M10" s="7">
         <v>52</v>
@@ -3828,13 +3825,13 @@
         <v>53911</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3846,13 @@
         <v>40878</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H11" s="7">
         <v>40</v>
@@ -3864,13 +3861,13 @@
         <v>40809</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M11" s="7">
         <v>79</v>
@@ -3879,13 +3876,13 @@
         <v>81688</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,13 +3897,13 @@
         <v>174981</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H12" s="7">
         <v>103</v>
@@ -3915,13 +3912,13 @@
         <v>105160</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M12" s="7">
         <v>269</v>
@@ -3930,13 +3927,13 @@
         <v>280141</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,13 +3948,13 @@
         <v>309098</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H13" s="7">
         <v>194</v>
@@ -3966,13 +3963,13 @@
         <v>196369</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M13" s="7">
         <v>487</v>
@@ -3981,13 +3978,13 @@
         <v>505467</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,13 +3999,13 @@
         <v>373018</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H14" s="7">
         <v>274</v>
@@ -4017,13 +4014,13 @@
         <v>283748</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M14" s="7">
         <v>616</v>
@@ -4032,13 +4029,13 @@
         <v>656766</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,7 +4091,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4109,10 +4106,10 @@
         <v>21</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -4121,13 +4118,13 @@
         <v>8130</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -4136,13 +4133,13 @@
         <v>15493</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4154,13 @@
         <v>20963</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -4172,13 +4169,13 @@
         <v>15765</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -4187,13 +4184,13 @@
         <v>36729</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,13 +4205,13 @@
         <v>59244</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H18" s="7">
         <v>51</v>
@@ -4223,13 +4220,13 @@
         <v>53537</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M18" s="7">
         <v>105</v>
@@ -4238,13 +4235,13 @@
         <v>112781</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>308</v>
+        <v>45</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,13 +4256,13 @@
         <v>119549</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H19" s="7">
         <v>91</v>
@@ -4274,13 +4271,13 @@
         <v>91636</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M19" s="7">
         <v>201</v>
@@ -4289,13 +4286,13 @@
         <v>211185</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,13 +4307,13 @@
         <v>143488</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H20" s="7">
         <v>133</v>
@@ -4325,13 +4322,13 @@
         <v>139385</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>323</v>
+        <v>280</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="M20" s="7">
         <v>265</v>
@@ -4340,13 +4337,13 @@
         <v>282873</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,13 +4411,13 @@
         <v>40899</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>330</v>
+        <v>27</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -4429,13 +4426,13 @@
         <v>36756</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="M22" s="7">
         <v>75</v>
@@ -4444,13 +4441,13 @@
         <v>77655</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>114</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,13 +4462,13 @@
         <v>74402</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H23" s="7">
         <v>59</v>
@@ -4480,13 +4477,13 @@
         <v>59706</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>338</v>
+        <v>195</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M23" s="7">
         <v>128</v>
@@ -4495,13 +4492,13 @@
         <v>134108</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,13 +4513,13 @@
         <v>267473</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H24" s="7">
         <v>168</v>
@@ -4531,13 +4528,13 @@
         <v>172513</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M24" s="7">
         <v>419</v>
@@ -4546,13 +4543,13 @@
         <v>439986</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,13 +4564,13 @@
         <v>466057</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H25" s="7">
         <v>307</v>
@@ -4582,13 +4579,13 @@
         <v>309634</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M25" s="7">
         <v>745</v>
@@ -4597,13 +4594,13 @@
         <v>775690</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4618,13 +4615,13 @@
         <v>570094</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H26" s="7">
         <v>438</v>
@@ -4633,13 +4630,13 @@
         <v>454706</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>364</v>
+        <v>278</v>
       </c>
       <c r="M26" s="7">
         <v>962</v>
@@ -4648,13 +4645,13 @@
         <v>1024799</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,7 +4707,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4729,7 +4726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E726FA-49B1-4A25-B6CD-ED713D9A18AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20565486-4B77-47D9-9380-53C6F0A1AE59}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4746,7 +4743,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4853,13 +4850,13 @@
         <v>1206</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4868,13 +4865,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4883,13 +4880,13 @@
         <v>1206</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>374</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4901,13 @@
         <v>1184</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4919,13 +4916,13 @@
         <v>637</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -4934,13 +4931,13 @@
         <v>1821</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,13 +4952,13 @@
         <v>4635</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>381</v>
+        <v>289</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -4970,13 +4967,13 @@
         <v>6447</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>220</v>
+        <v>377</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -4985,13 +4982,13 @@
         <v>11082</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,13 +5003,13 @@
         <v>10556</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -5021,13 +5018,13 @@
         <v>4607</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -5036,13 +5033,13 @@
         <v>15163</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>393</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,13 +5054,13 @@
         <v>15807</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -5072,13 +5069,13 @@
         <v>8620</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="M8" s="7">
         <v>29</v>
@@ -5087,13 +5084,13 @@
         <v>24427</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>235</v>
+        <v>396</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,10 +5161,10 @@
         <v>70</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>404</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>288</v>
+        <v>398</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -5176,13 +5173,13 @@
         <v>11780</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>67</v>
+        <v>399</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>405</v>
+        <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -5191,13 +5188,13 @@
         <v>19477</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5212,13 +5209,13 @@
         <v>22938</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -5227,13 +5224,13 @@
         <v>7516</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>69</v>
+        <v>406</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>412</v>
+        <v>71</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="M11" s="7">
         <v>30</v>
@@ -5242,13 +5239,13 @@
         <v>30454</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>108</v>
+        <v>408</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5263,13 +5260,13 @@
         <v>51353</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="H12" s="7">
         <v>56</v>
@@ -5278,13 +5275,13 @@
         <v>40148</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="M12" s="7">
         <v>106</v>
@@ -5293,13 +5290,13 @@
         <v>91501</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>171</v>
+        <v>417</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5314,13 +5311,13 @@
         <v>73072</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -5329,13 +5326,13 @@
         <v>68109</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="M13" s="7">
         <v>151</v>
@@ -5344,13 +5341,13 @@
         <v>141182</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5365,13 +5362,13 @@
         <v>175888</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H14" s="7">
         <v>161</v>
@@ -5380,13 +5377,13 @@
         <v>125747</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="M14" s="7">
         <v>267</v>
@@ -5395,13 +5392,13 @@
         <v>301635</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,7 +5454,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5469,13 +5466,13 @@
         <v>15918</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -5484,13 +5481,13 @@
         <v>5316</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>67</v>
+        <v>399</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -5499,13 +5496,13 @@
         <v>21234</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,13 +5517,13 @@
         <v>5181</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -5535,13 +5532,13 @@
         <v>9090</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>35</v>
+        <v>448</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>291</v>
+        <v>449</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -5550,13 +5547,13 @@
         <v>14270</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5571,13 +5568,13 @@
         <v>26739</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="H18" s="7">
         <v>29</v>
@@ -5586,13 +5583,13 @@
         <v>19372</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>458</v>
+        <v>213</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="M18" s="7">
         <v>54</v>
@@ -5601,13 +5598,13 @@
         <v>46110</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,13 +5619,13 @@
         <v>26407</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -5637,13 +5634,13 @@
         <v>27161</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
@@ -5652,13 +5649,13 @@
         <v>53568</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5673,13 +5670,13 @@
         <v>58174</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H20" s="7">
         <v>61</v>
@@ -5688,13 +5685,13 @@
         <v>53425</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="M20" s="7">
         <v>108</v>
@@ -5703,13 +5700,13 @@
         <v>111599</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5777,13 +5774,13 @@
         <v>24821</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -5792,13 +5789,13 @@
         <v>17096</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>25</v>
+        <v>481</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="M22" s="7">
         <v>47</v>
@@ -5807,13 +5804,13 @@
         <v>41917</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>75</v>
+        <v>483</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5828,13 +5825,13 @@
         <v>29303</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>488</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H23" s="7">
         <v>22</v>
@@ -5843,13 +5840,13 @@
         <v>17243</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="M23" s="7">
         <v>47</v>
@@ -5858,13 +5855,13 @@
         <v>46545</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5879,13 +5876,13 @@
         <v>82726</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>495</v>
       </c>
       <c r="H24" s="7">
         <v>96</v>
@@ -5894,13 +5891,13 @@
         <v>65967</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="M24" s="7">
         <v>175</v>
@@ -5909,13 +5906,13 @@
         <v>148693</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,13 +5927,13 @@
         <v>110035</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="H25" s="7">
         <v>132</v>
@@ -5945,13 +5942,13 @@
         <v>99877</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>505</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M25" s="7">
         <v>233</v>
@@ -5960,13 +5957,13 @@
         <v>209912</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,13 +5978,13 @@
         <v>249869</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>511</v>
       </c>
       <c r="H26" s="7">
         <v>236</v>
@@ -5996,13 +5993,13 @@
         <v>187792</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="M26" s="7">
         <v>404</v>
@@ -6011,13 +6008,13 @@
         <v>437661</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6073,7 +6070,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6703-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6703-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41A23ADC-BF9A-46EA-9499-D7742FF8366B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E853FEB-BC00-45C4-B920-106E46E7ED52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E7DB06D5-CAB4-4ABC-9B86-52CB7B292FC9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1D56D1D5-F9FD-4706-ADE8-FCE8302EC23D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="509">
   <si>
     <t>Población según si tiene tiempo de llevar al día su trabajo en 2012 (Tasa respuesta: 33,96%)</t>
   </si>
@@ -76,1519 +76,1495 @@
     <t>2,43%</t>
   </si>
   <si>
-    <t>0,74%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tiene tiempo de llevar al día su trabajo en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
   </si>
   <si>
     <t>6,58%</t>
   </si>
   <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>Población según si tiene tiempo de llevar al día su trabajo en 2023 (Tasa respuesta: 10,37%)</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
   </si>
   <si>
     <t>7,99%</t>
   </si>
   <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
   </si>
   <si>
     <t>3,54%</t>
   </si>
   <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tiene tiempo de llevar al día su trabajo en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
   </si>
   <si>
     <t>27,2%</t>
   </si>
   <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>Población según si tiene tiempo de llevar al día su trabajo en 2023 (Tasa respuesta: 10,37%)</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
     <t>50,3%</t>
   </si>
   <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
   </si>
   <si>
     <t>48,4%</t>
   </si>
   <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
   </si>
   <si>
     <t>49,47%</t>
   </si>
   <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
   </si>
 </sst>
 </file>
@@ -2000,7 +1976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2EEEA1-0F9E-4854-81F5-4CBE199EE6D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF665096-81B0-4694-86DD-2E293350E4CE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2438,7 +2414,7 @@
         <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -2447,13 +2423,13 @@
         <v>16364</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -2465,10 +2441,10 @@
         <v>21</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,13 +2459,13 @@
         <v>21330</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -2498,13 +2474,13 @@
         <v>16692</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -2513,13 +2489,13 @@
         <v>38022</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,13 +2510,13 @@
         <v>168569</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>96</v>
@@ -2549,13 +2525,13 @@
         <v>104262</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>261</v>
@@ -2564,13 +2540,13 @@
         <v>272831</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,13 +2561,13 @@
         <v>271129</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>167</v>
@@ -2600,13 +2576,13 @@
         <v>181458</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>430</v>
@@ -2615,13 +2591,13 @@
         <v>452587</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2612,13 @@
         <v>439673</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>241</v>
@@ -2651,13 +2627,13 @@
         <v>254061</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>645</v>
@@ -2666,13 +2642,13 @@
         <v>693734</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,7 +2704,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2740,13 +2716,13 @@
         <v>8744</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2755,13 +2731,13 @@
         <v>2974</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -2770,13 +2746,13 @@
         <v>11718</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,13 +2767,13 @@
         <v>9495</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -2806,13 +2782,13 @@
         <v>7386</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -2821,13 +2797,13 @@
         <v>16880</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,13 +2818,13 @@
         <v>61594</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>47</v>
@@ -2857,13 +2833,13 @@
         <v>50783</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>103</v>
@@ -2872,13 +2848,13 @@
         <v>112378</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,13 +2869,13 @@
         <v>105751</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -2908,13 +2884,13 @@
         <v>68583</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>155</v>
@@ -2923,13 +2899,13 @@
         <v>174333</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,13 +2920,13 @@
         <v>132760</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>95</v>
@@ -2959,13 +2935,13 @@
         <v>105171</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>214</v>
@@ -2974,13 +2950,13 @@
         <v>237931</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,13 +3024,13 @@
         <v>28069</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -3063,13 +3039,13 @@
         <v>29904</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>53</v>
@@ -3078,13 +3054,13 @@
         <v>57973</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,13 +3075,13 @@
         <v>34684</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -3114,13 +3090,13 @@
         <v>32792</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>63</v>
@@ -3129,13 +3105,13 @@
         <v>67476</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,13 +3126,13 @@
         <v>268691</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>161</v>
@@ -3165,13 +3141,13 @@
         <v>173520</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>419</v>
@@ -3180,13 +3156,13 @@
         <v>442211</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,13 +3177,13 @@
         <v>424997</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>254</v>
@@ -3216,13 +3192,13 @@
         <v>279166</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>657</v>
@@ -3231,13 +3207,13 @@
         <v>704164</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3228,13 @@
         <v>661481</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>403</v>
@@ -3267,13 +3243,13 @@
         <v>432329</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>1013</v>
@@ -3282,13 +3258,13 @@
         <v>1093810</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,7 +3320,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3363,7 +3339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC55772-4F2C-4BD7-A40A-FB26735E422E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A1D272-1CEC-4CE0-97D1-1DEC31FD14ED}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3380,7 +3356,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3487,13 +3463,13 @@
         <v>6315</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3502,13 +3478,13 @@
         <v>1937</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -3517,13 +3493,13 @@
         <v>8252</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3514,13 @@
         <v>12560</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3553,13 +3529,13 @@
         <v>3132</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -3568,13 +3544,13 @@
         <v>15692</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3565,13 @@
         <v>33248</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H6" s="7">
         <v>14</v>
@@ -3604,13 +3580,13 @@
         <v>13817</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>48</v>
+        <v>214</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M6" s="7">
         <v>45</v>
@@ -3619,13 +3595,13 @@
         <v>47064</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,13 +3616,13 @@
         <v>37409</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -3655,13 +3631,13 @@
         <v>21629</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M7" s="7">
         <v>57</v>
@@ -3670,13 +3646,13 @@
         <v>59038</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,13 +3667,13 @@
         <v>53587</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H8" s="7">
         <v>31</v>
@@ -3706,13 +3682,13 @@
         <v>31573</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M8" s="7">
         <v>81</v>
@@ -3721,13 +3697,13 @@
         <v>85159</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>237</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,13 +3771,13 @@
         <v>27222</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -3810,13 +3786,13 @@
         <v>26689</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
         <v>52</v>
@@ -3825,13 +3801,13 @@
         <v>53911</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,13 +3822,13 @@
         <v>40878</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H11" s="7">
         <v>40</v>
@@ -3861,13 +3837,13 @@
         <v>40809</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M11" s="7">
         <v>79</v>
@@ -3876,13 +3852,13 @@
         <v>81688</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3873,13 @@
         <v>174981</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H12" s="7">
         <v>103</v>
@@ -3912,13 +3888,13 @@
         <v>105160</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M12" s="7">
         <v>269</v>
@@ -3927,13 +3903,13 @@
         <v>280141</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3924,13 @@
         <v>309098</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H13" s="7">
         <v>194</v>
@@ -3963,13 +3939,13 @@
         <v>196369</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M13" s="7">
         <v>487</v>
@@ -3978,13 +3954,13 @@
         <v>505467</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,13 +3975,13 @@
         <v>373018</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H14" s="7">
         <v>274</v>
@@ -4014,13 +3990,13 @@
         <v>283748</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M14" s="7">
         <v>616</v>
@@ -4029,13 +4005,13 @@
         <v>656766</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,7 +4067,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4106,10 +4082,10 @@
         <v>21</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>283</v>
+        <v>209</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -4118,13 +4094,13 @@
         <v>8130</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -4133,13 +4109,13 @@
         <v>15493</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,13 +4130,13 @@
         <v>20963</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -4172,10 +4148,10 @@
         <v>286</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -4184,13 +4160,13 @@
         <v>36729</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>297</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4181,13 @@
         <v>59244</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H18" s="7">
         <v>51</v>
@@ -4220,13 +4196,13 @@
         <v>53537</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="M18" s="7">
         <v>105</v>
@@ -4235,13 +4211,13 @@
         <v>112781</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>45</v>
+        <v>298</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,13 +4232,13 @@
         <v>119549</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H19" s="7">
         <v>91</v>
@@ -4271,13 +4247,13 @@
         <v>91636</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M19" s="7">
         <v>201</v>
@@ -4286,13 +4262,13 @@
         <v>211185</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,13 +4283,13 @@
         <v>143488</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H20" s="7">
         <v>133</v>
@@ -4322,13 +4298,13 @@
         <v>139385</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="M20" s="7">
         <v>265</v>
@@ -4337,13 +4313,13 @@
         <v>282873</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,10 +4387,10 @@
         <v>40899</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>27</v>
@@ -4426,13 +4402,13 @@
         <v>36756</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="M22" s="7">
         <v>75</v>
@@ -4441,13 +4417,13 @@
         <v>77655</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>328</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,13 +4438,13 @@
         <v>74402</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="H23" s="7">
         <v>59</v>
@@ -4477,13 +4453,13 @@
         <v>59706</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>195</v>
+        <v>329</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="M23" s="7">
         <v>128</v>
@@ -4492,13 +4468,13 @@
         <v>134108</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>67</v>
+        <v>332</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,13 +4489,13 @@
         <v>267473</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>340</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>168</v>
@@ -4528,13 +4504,13 @@
         <v>172513</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="M24" s="7">
         <v>419</v>
@@ -4543,13 +4519,13 @@
         <v>439986</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>346</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,13 +4540,13 @@
         <v>466057</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H25" s="7">
         <v>307</v>
@@ -4579,13 +4555,13 @@
         <v>309634</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="M25" s="7">
         <v>745</v>
@@ -4594,13 +4570,13 @@
         <v>775690</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>353</v>
+        <v>303</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>354</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,13 +4591,13 @@
         <v>570094</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="H26" s="7">
         <v>438</v>
@@ -4630,13 +4606,13 @@
         <v>454706</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>278</v>
+        <v>352</v>
       </c>
       <c r="M26" s="7">
         <v>962</v>
@@ -4645,13 +4621,13 @@
         <v>1024799</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,7 +4683,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4726,7 +4702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20565486-4B77-47D9-9380-53C6F0A1AE59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206727BA-FC05-475F-9359-AA935F9A04EB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4743,7 +4719,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4850,13 +4826,13 @@
         <v>1206</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4865,13 +4841,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4880,13 +4856,13 @@
         <v>1206</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>368</v>
+        <v>163</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>259</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,13 +4877,13 @@
         <v>1184</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>369</v>
+        <v>70</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4916,13 +4892,13 @@
         <v>637</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -4931,13 +4907,13 @@
         <v>1821</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>372</v>
+        <v>284</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4928,13 @@
         <v>4635</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>289</v>
+        <v>366</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -4967,13 +4943,13 @@
         <v>6447</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>377</v>
+        <v>172</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -4982,13 +4958,13 @@
         <v>11082</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>379</v>
+        <v>85</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5003,13 +4979,13 @@
         <v>10556</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>301</v>
+        <v>373</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -5018,13 +4994,13 @@
         <v>4607</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -5033,13 +5009,13 @@
         <v>15163</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>378</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5054,13 +5030,13 @@
         <v>15807</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -5069,13 +5045,13 @@
         <v>8620</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="M8" s="7">
         <v>29</v>
@@ -5084,13 +5060,13 @@
         <v>24427</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,13 +5134,13 @@
         <v>7697</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>390</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -5173,13 +5149,13 @@
         <v>11780</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>399</v>
+        <v>110</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>392</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -5188,13 +5164,13 @@
         <v>19477</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5209,13 +5185,13 @@
         <v>22938</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>72</v>
+        <v>398</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -5224,13 +5200,13 @@
         <v>7516</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>406</v>
+        <v>287</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>400</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="M11" s="7">
         <v>30</v>
@@ -5239,13 +5215,13 @@
         <v>30454</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5260,13 +5236,13 @@
         <v>51353</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="H12" s="7">
         <v>56</v>
@@ -5275,13 +5251,13 @@
         <v>40148</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="M12" s="7">
         <v>106</v>
@@ -5290,13 +5266,13 @@
         <v>91501</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,13 +5287,13 @@
         <v>73072</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -5326,13 +5302,13 @@
         <v>68109</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="M13" s="7">
         <v>151</v>
@@ -5341,13 +5317,13 @@
         <v>141182</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,13 +5338,13 @@
         <v>175888</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="H14" s="7">
         <v>161</v>
@@ -5377,13 +5353,13 @@
         <v>125747</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>55</v>
+        <v>425</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="M14" s="7">
         <v>267</v>
@@ -5392,13 +5368,13 @@
         <v>301635</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,7 +5430,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5466,13 +5442,13 @@
         <v>15918</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>439</v>
+        <v>44</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -5481,13 +5457,13 @@
         <v>5316</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>399</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -5496,13 +5472,13 @@
         <v>21234</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,13 +5493,13 @@
         <v>5181</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>445</v>
+        <v>290</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -5532,13 +5508,13 @@
         <v>9090</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -5547,13 +5523,13 @@
         <v>14270</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,13 +5544,13 @@
         <v>26739</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="H18" s="7">
         <v>29</v>
@@ -5583,13 +5559,13 @@
         <v>19372</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>213</v>
+        <v>447</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="M18" s="7">
         <v>54</v>
@@ -5598,13 +5574,13 @@
         <v>46110</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5619,13 +5595,13 @@
         <v>26407</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -5634,13 +5610,13 @@
         <v>27161</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
@@ -5649,13 +5625,13 @@
         <v>53568</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>298</v>
+        <v>447</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,13 +5646,13 @@
         <v>58174</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="H20" s="7">
         <v>61</v>
@@ -5685,13 +5661,13 @@
         <v>53425</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="M20" s="7">
         <v>108</v>
@@ -5700,13 +5676,13 @@
         <v>111599</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5774,13 +5750,13 @@
         <v>24821</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>479</v>
+        <v>234</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>480</v>
+        <v>393</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -5789,13 +5765,13 @@
         <v>17096</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>481</v>
+        <v>318</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="M22" s="7">
         <v>47</v>
@@ -5804,13 +5780,13 @@
         <v>41917</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,13 +5801,13 @@
         <v>29303</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>203</v>
+        <v>476</v>
       </c>
       <c r="H23" s="7">
         <v>22</v>
@@ -5840,13 +5816,13 @@
         <v>17243</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>489</v>
       </c>
       <c r="M23" s="7">
         <v>47</v>
@@ -5855,13 +5831,13 @@
         <v>46545</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,13 +5852,13 @@
         <v>82726</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>418</v>
+        <v>484</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="H24" s="7">
         <v>96</v>
@@ -5891,13 +5867,13 @@
         <v>65967</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>495</v>
+        <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="M24" s="7">
         <v>175</v>
@@ -5906,13 +5882,13 @@
         <v>148693</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>259</v>
+        <v>489</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,13 +5903,13 @@
         <v>110035</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="H25" s="7">
         <v>132</v>
@@ -5942,13 +5918,13 @@
         <v>99877</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>223</v>
+        <v>496</v>
       </c>
       <c r="M25" s="7">
         <v>233</v>
@@ -5957,13 +5933,13 @@
         <v>209912</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,13 +5954,13 @@
         <v>249869</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="H26" s="7">
         <v>236</v>
@@ -5993,13 +5969,13 @@
         <v>187792</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="M26" s="7">
         <v>404</v>
@@ -6008,13 +5984,13 @@
         <v>437661</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6070,7 +6046,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6703-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6703-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E853FEB-BC00-45C4-B920-106E46E7ED52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CB42879-A90F-40C2-AC99-B99492FF8601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1D56D1D5-F9FD-4706-ADE8-FCE8302EC23D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{954B2469-2247-4960-BF61-822992618294}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="516">
   <si>
     <t>Población según si tiene tiempo de llevar al día su trabajo en 2012 (Tasa respuesta: 33,96%)</t>
   </si>
@@ -1111,10 +1111,10 @@
     <t>Población según si tiene tiempo de llevar al día su trabajo en 2023 (Tasa respuesta: 10,37%)</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
   </si>
   <si>
     <t>0%</t>
@@ -1123,448 +1123,469 @@
     <t>5,61%</t>
   </si>
   <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
   </si>
   <si>
     <t>1,45%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
   </si>
   <si>
     <t>13,18%</t>
   </si>
   <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
   </si>
   <si>
     <t>2,8%</t>
   </si>
   <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
   </si>
 </sst>
 </file>
@@ -1976,7 +1997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF665096-81B0-4694-86DD-2E293350E4CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8666C78B-70FF-446E-BA95-5F0C640322CD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3204,7 +3225,7 @@
         <v>657</v>
       </c>
       <c r="N25" s="7">
-        <v>704164</v>
+        <v>704163</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>180</v>
@@ -3306,7 +3327,7 @@
         <v>2205</v>
       </c>
       <c r="N27" s="7">
-        <v>2365634</v>
+        <v>2365633</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -3339,7 +3360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A1D272-1CEC-4CE0-97D1-1DEC31FD14ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF95111-DE73-4995-AD80-7233A5F2CD17}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4567,7 +4588,7 @@
         <v>745</v>
       </c>
       <c r="N25" s="7">
-        <v>775690</v>
+        <v>775691</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>346</v>
@@ -4669,7 +4690,7 @@
         <v>2329</v>
       </c>
       <c r="N27" s="7">
-        <v>2452238</v>
+        <v>2452239</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -4702,7 +4723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206727BA-FC05-475F-9359-AA935F9A04EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F86E314-08BF-4F8F-9E05-2D54656F5056}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4823,7 +4844,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>1206</v>
+        <v>1187</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>357</v>
@@ -4853,16 +4874,16 @@
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>1206</v>
+        <v>1187</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>361</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>109</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,46 +4895,46 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>1184</v>
+        <v>1021</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>70</v>
+        <v>363</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>109</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>637</v>
+        <v>565</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>117</v>
+        <v>365</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>109</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>1821</v>
+        <v>1586</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>363</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>109</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,46 +4946,46 @@
         <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>4635</v>
+        <v>5172</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>367</v>
+        <v>227</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>6447</v>
+        <v>5879</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>172</v>
+        <v>371</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
       </c>
       <c r="N6" s="7">
-        <v>11082</v>
+        <v>11051</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>85</v>
+        <v>373</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,46 +4997,46 @@
         <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>10556</v>
+        <v>10974</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>4607</v>
+        <v>4034</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
       </c>
       <c r="N7" s="7">
-        <v>15163</v>
+        <v>15008</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,46 +5048,46 @@
         <v>15</v>
       </c>
       <c r="D8" s="7">
-        <v>15807</v>
+        <v>14589</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
       </c>
       <c r="I8" s="7">
-        <v>8620</v>
+        <v>7724</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="M8" s="7">
         <v>29</v>
       </c>
       <c r="N8" s="7">
-        <v>24427</v>
+        <v>22313</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,7 +5099,7 @@
         <v>33</v>
       </c>
       <c r="D9" s="7">
-        <v>33387</v>
+        <v>32942</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -5093,7 +5114,7 @@
         <v>33</v>
       </c>
       <c r="I9" s="7">
-        <v>20311</v>
+        <v>18203</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -5108,7 +5129,7 @@
         <v>66</v>
       </c>
       <c r="N9" s="7">
-        <v>53698</v>
+        <v>51145</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -5131,46 +5152,46 @@
         <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>7697</v>
+        <v>6974</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>68</v>
+        <v>394</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
       </c>
       <c r="I10" s="7">
-        <v>11780</v>
+        <v>10600</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>110</v>
+        <v>397</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
       </c>
       <c r="N10" s="7">
-        <v>19477</v>
+        <v>17573</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,46 +5203,46 @@
         <v>20</v>
       </c>
       <c r="D11" s="7">
-        <v>22938</v>
+        <v>22111</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
       </c>
       <c r="I11" s="7">
-        <v>7516</v>
+        <v>6823</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>287</v>
+        <v>406</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="M11" s="7">
         <v>30</v>
       </c>
       <c r="N11" s="7">
-        <v>30454</v>
+        <v>28934</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,46 +5254,46 @@
         <v>50</v>
       </c>
       <c r="D12" s="7">
-        <v>51353</v>
+        <v>49657</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="H12" s="7">
         <v>56</v>
       </c>
       <c r="I12" s="7">
-        <v>40148</v>
+        <v>37606</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="M12" s="7">
         <v>106</v>
       </c>
       <c r="N12" s="7">
-        <v>91501</v>
+        <v>87263</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5284,46 +5305,46 @@
         <v>63</v>
       </c>
       <c r="D13" s="7">
-        <v>73072</v>
+        <v>73207</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>414</v>
+        <v>329</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
       </c>
       <c r="I13" s="7">
-        <v>68109</v>
+        <v>61901</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="M13" s="7">
         <v>151</v>
       </c>
       <c r="N13" s="7">
-        <v>141182</v>
+        <v>135108</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>419</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,46 +5356,46 @@
         <v>106</v>
       </c>
       <c r="D14" s="7">
-        <v>175888</v>
+        <v>359856</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="H14" s="7">
         <v>161</v>
       </c>
       <c r="I14" s="7">
-        <v>125747</v>
+        <v>114172</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="M14" s="7">
         <v>267</v>
       </c>
       <c r="N14" s="7">
-        <v>301635</v>
+        <v>474028</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,7 +5407,7 @@
         <v>246</v>
       </c>
       <c r="D15" s="7">
-        <v>330948</v>
+        <v>511804</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -5401,7 +5422,7 @@
         <v>332</v>
       </c>
       <c r="I15" s="7">
-        <v>253300</v>
+        <v>231102</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -5416,7 +5437,7 @@
         <v>578</v>
       </c>
       <c r="N15" s="7">
-        <v>584248</v>
+        <v>742906</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -5439,46 +5460,46 @@
         <v>14</v>
       </c>
       <c r="D16" s="7">
-        <v>15918</v>
+        <v>14927</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>430</v>
+        <v>207</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>44</v>
+        <v>438</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>5316</v>
+        <v>4783</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>439</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
       </c>
       <c r="N16" s="7">
-        <v>21234</v>
+        <v>19710</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,46 +5511,46 @@
         <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>5181</v>
+        <v>5158</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>290</v>
+        <v>445</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
       </c>
       <c r="I17" s="7">
-        <v>9090</v>
+        <v>8212</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
       </c>
       <c r="N17" s="7">
-        <v>14270</v>
+        <v>13371</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>328</v>
+        <v>450</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,46 +5562,46 @@
         <v>25</v>
       </c>
       <c r="D18" s="7">
-        <v>26739</v>
+        <v>25379</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>444</v>
+        <v>222</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="H18" s="7">
         <v>29</v>
       </c>
       <c r="I18" s="7">
-        <v>19372</v>
+        <v>18336</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="M18" s="7">
         <v>54</v>
       </c>
       <c r="N18" s="7">
-        <v>46110</v>
+        <v>43715</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,46 +5613,46 @@
         <v>26</v>
       </c>
       <c r="D19" s="7">
-        <v>26407</v>
+        <v>24867</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
       </c>
       <c r="I19" s="7">
-        <v>27161</v>
+        <v>25881</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
       </c>
       <c r="N19" s="7">
-        <v>53568</v>
+        <v>50747</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>459</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,46 +5664,46 @@
         <v>47</v>
       </c>
       <c r="D20" s="7">
-        <v>58174</v>
+        <v>54885</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="H20" s="7">
         <v>61</v>
       </c>
       <c r="I20" s="7">
-        <v>53425</v>
+        <v>48489</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="M20" s="7">
         <v>108</v>
       </c>
       <c r="N20" s="7">
-        <v>111599</v>
+        <v>103373</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>466</v>
+        <v>96</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>467</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,7 +5715,7 @@
         <v>116</v>
       </c>
       <c r="D21" s="7">
-        <v>132419</v>
+        <v>125215</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -5709,7 +5730,7 @@
         <v>146</v>
       </c>
       <c r="I21" s="7">
-        <v>114363</v>
+        <v>105701</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -5724,7 +5745,7 @@
         <v>262</v>
       </c>
       <c r="N21" s="7">
-        <v>246782</v>
+        <v>230916</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -5747,46 +5768,46 @@
         <v>22</v>
       </c>
       <c r="D22" s="7">
-        <v>24821</v>
+        <v>23087</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>234</v>
+        <v>476</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>393</v>
+        <v>477</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
       </c>
       <c r="I22" s="7">
-        <v>17096</v>
+        <v>15383</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>194</v>
+        <v>478</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>318</v>
+        <v>479</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="M22" s="7">
         <v>47</v>
       </c>
       <c r="N22" s="7">
-        <v>41917</v>
+        <v>38470</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5798,46 +5819,46 @@
         <v>25</v>
       </c>
       <c r="D23" s="7">
-        <v>29303</v>
+        <v>28290</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>475</v>
+        <v>69</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="H23" s="7">
         <v>22</v>
       </c>
       <c r="I23" s="7">
-        <v>17243</v>
+        <v>15601</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="M23" s="7">
         <v>47</v>
       </c>
       <c r="N23" s="7">
-        <v>46545</v>
+        <v>43891</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>481</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,46 +5870,46 @@
         <v>79</v>
       </c>
       <c r="D24" s="7">
-        <v>82726</v>
+        <v>80207</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="H24" s="7">
         <v>96</v>
       </c>
       <c r="I24" s="7">
-        <v>65967</v>
+        <v>61821</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>166</v>
+        <v>494</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>487</v>
+        <v>79</v>
       </c>
       <c r="M24" s="7">
         <v>175</v>
       </c>
       <c r="N24" s="7">
-        <v>148693</v>
+        <v>142029</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,46 +5921,46 @@
         <v>101</v>
       </c>
       <c r="D25" s="7">
-        <v>110035</v>
+        <v>109047</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="H25" s="7">
         <v>132</v>
       </c>
       <c r="I25" s="7">
-        <v>99877</v>
+        <v>91815</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>496</v>
+        <v>392</v>
       </c>
       <c r="M25" s="7">
         <v>233</v>
       </c>
       <c r="N25" s="7">
-        <v>209912</v>
+        <v>200863</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5951,46 +5972,46 @@
         <v>168</v>
       </c>
       <c r="D26" s="7">
-        <v>249869</v>
+        <v>429329</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="H26" s="7">
         <v>236</v>
       </c>
       <c r="I26" s="7">
-        <v>187792</v>
+        <v>170385</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="M26" s="7">
         <v>404</v>
       </c>
       <c r="N26" s="7">
-        <v>437661</v>
+        <v>599714</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6002,7 +6023,7 @@
         <v>395</v>
       </c>
       <c r="D27" s="7">
-        <v>496754</v>
+        <v>669961</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -6017,7 +6038,7 @@
         <v>511</v>
       </c>
       <c r="I27" s="7">
-        <v>387974</v>
+        <v>355005</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -6032,7 +6053,7 @@
         <v>906</v>
       </c>
       <c r="N27" s="7">
-        <v>884728</v>
+        <v>1024967</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
